--- a/wifi_bt_xbr/DOC/pin分配.xlsx
+++ b/wifi_bt_xbr/DOC/pin分配.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t xml:space="preserve"> 序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,7 +82,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PWM输出(控制光)</t>
+    <t>PWM输出(控制冷光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输出(控制暖光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输出(控制R光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输出(控制G光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输出(控制B光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -490,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -504,13 +536,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -518,13 +550,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -532,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -546,22 +578,78 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
